--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1298040.257834637</v>
+        <v>-1299938.48993876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>193.7457410905291</v>
       </c>
       <c r="E2" t="n">
-        <v>115.8569492398164</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>35.91413898973432</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>121.9287114051346</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>159.5664594848153</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>54.65520119711181</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>28.89264992377371</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>318.9781472489029</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>112.9856999467126</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.078278905613655</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>196.7218456862865</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465703</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>23.62168099169574</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>77.91313604580127</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>24.82982668742502</v>
       </c>
       <c r="W16" t="n">
-        <v>149.1725893558998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2020,7 +2020,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>152.435638459993</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5302809810859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>217.3817340185994</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>241.4592132962458</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>48.37466424891435</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373607</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224545</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373652</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789543</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.0673236324992</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="C2" t="n">
-        <v>550.1048066920875</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="D2" t="n">
-        <v>191.839108085337</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672433</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1305.667163696621</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>597.8010803716834</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1082.67330119093</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1469.273141255051</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931987</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C7" t="n">
-        <v>286.5323736931987</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>286.5323736931987</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931987</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1507.089911220685</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1121.30165862244</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2133.181277191804</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1780.41262192169</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1780.41262192169</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>724.0095105644004</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>724.0095105644004</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>509.7210873825632</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609752</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330683</v>
+        <v>530.6416996630629</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207326</v>
+        <v>380.5250602507272</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>232.611966668334</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>232.611966668334</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>232.611966668334</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1309.141029699726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.355614489232</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1085.355614489232</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1085.355614489232</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>1085.355614489232</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>857.3660635912149</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3660635912149</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.6416303362487</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1073.631895315685</v>
       </c>
       <c r="W16" t="n">
-        <v>804.4237603777962</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="X16" t="n">
-        <v>576.4342094797788</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="Y16" t="n">
-        <v>355.6416303362487</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,13 +5595,13 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
         <v>1661.954360834046</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X19" t="n">
-        <v>766.3950693506686</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y19" t="n">
-        <v>766.3950693506686</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>474.8900731662875</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3351829786183</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1841.189502980821</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1024.654273242319</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>796.6647223443018</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>575.8721432007717</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.1598612984388</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1255.018075309169</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>965.6009052722087</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>965.6009052722087</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.8083261286786</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,34 +6446,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6543,22 +6543,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,10 +6619,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,13 +7336,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7731,19 +7731,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,16 +9243,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>29.47535963978228</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>62.91120742583783</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P33" t="n">
-        <v>43.65987261462459</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>148.2747143566552</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>29.47535963978268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22708,19 +22708,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.5198236568349</v>
       </c>
       <c r="F4" t="n">
-        <v>72.00374503678235</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>49.09366889758633</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.64056718375454</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>125.2921473758404</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>120.007673937802</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.307816636403</v>
       </c>
       <c r="W16" t="n">
-        <v>137.3504089806912</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>133.5789023442194</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>73.27401692904411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>64.99271735550508</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>69.14126431799158</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>10.67843002758221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>177.3349911401228</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1310688.749040167</v>
+        <v>1310688.749040166</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1258421.929126101</v>
+        <v>1258421.9291261</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="10">
@@ -26338,19 +26338,19 @@
         <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371256</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>143694.8020290737</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,22 +26485,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694475.1181034466</v>
+        <v>-694493.6118413809</v>
       </c>
       <c r="C6" t="n">
         <v>-107619.8612996878</v>
@@ -26528,40 +26528,40 @@
         <v>-107619.8612996879</v>
       </c>
       <c r="E6" t="n">
-        <v>-507755.3761603075</v>
+        <v>-507852.8352862797</v>
       </c>
       <c r="F6" t="n">
-        <v>17404.66031658849</v>
+        <v>17307.20119061632</v>
       </c>
       <c r="G6" t="n">
-        <v>17404.66031658853</v>
+        <v>17307.20119061632</v>
       </c>
       <c r="H6" t="n">
-        <v>17404.66031658846</v>
+        <v>17307.20119061632</v>
       </c>
       <c r="I6" t="n">
-        <v>17404.6603165885</v>
+        <v>17307.2011906163</v>
       </c>
       <c r="J6" t="n">
-        <v>-159018.5588760045</v>
+        <v>-159116.0180019766</v>
       </c>
       <c r="K6" t="n">
-        <v>-59399.87134142328</v>
+        <v>-59399.87134142334</v>
       </c>
       <c r="L6" t="n">
-        <v>-4894.359237710843</v>
+        <v>-4894.359237710829</v>
       </c>
       <c r="M6" t="n">
         <v>-139695.374471548</v>
       </c>
       <c r="N6" t="n">
+        <v>-4894.359237710843</v>
+      </c>
+      <c r="O6" t="n">
         <v>-4894.359237710829</v>
       </c>
-      <c r="O6" t="n">
-        <v>-4894.3592377108</v>
-      </c>
       <c r="P6" t="n">
-        <v>-59399.87134142334</v>
+        <v>-59399.87134142338</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,13 +26765,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>160.9373005301538</v>
       </c>
       <c r="E2" t="n">
-        <v>266.0734208324454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>73.4173029861489</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>107.0772199442088</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>243.3441803658729</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>210.1646411936537</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>112.591619901516</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>116.5283980991575</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>87.89789849280857</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>214.7665585234222</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>25.04447104930064</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>89.80115265030452</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>180.0507982277215</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>213.4866460137771</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>492.1965505854582</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>618.3470930053976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,19 +37154,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P33" t="n">
-        <v>250.7532875461493</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>458.6990914071216</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -38099,22 +38099,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
